--- a/Outputs/table_outputs_formatted_12.11.24.xlsx
+++ b/Outputs/table_outputs_formatted_12.11.24.xlsx
@@ -8,51 +8,52 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1985751\Documents\GitHub\fea\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E9CA67-B905-48F7-9DBF-A37A057F7869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD75821F-E90B-4F67-8C17-313D912370C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab1" sheetId="34" r:id="rId1"/>
     <sheet name="Tab2" sheetId="36" r:id="rId2"/>
-    <sheet name="Tab3" sheetId="7" r:id="rId3"/>
-    <sheet name="Tab4" sheetId="39" r:id="rId4"/>
-    <sheet name="Tab5" sheetId="41" r:id="rId5"/>
-    <sheet name="TabS1" sheetId="42" r:id="rId6"/>
-    <sheet name="Tab6" sheetId="19" r:id="rId7"/>
-    <sheet name="Tab7" sheetId="20" r:id="rId8"/>
-    <sheet name="Tab8" sheetId="43" r:id="rId9"/>
-    <sheet name="Tab9" sheetId="24" r:id="rId10"/>
-    <sheet name="Tab10" sheetId="25" r:id="rId11"/>
-    <sheet name="Tab11" sheetId="44" r:id="rId12"/>
-    <sheet name="Tab12" sheetId="29" r:id="rId13"/>
-    <sheet name="Tab13" sheetId="45" r:id="rId14"/>
-    <sheet name="Tab14" sheetId="32" r:id="rId15"/>
-    <sheet name="Table 1" sheetId="35" r:id="rId16"/>
-    <sheet name="Table 2 - neighbourhood" sheetId="3" r:id="rId17"/>
-    <sheet name="Table 2 - city" sheetId="4" r:id="rId18"/>
-    <sheet name="Table 2 - country" sheetId="5" r:id="rId19"/>
-    <sheet name="Table 2 - overall" sheetId="6" r:id="rId20"/>
-    <sheet name="Table 3 - neighbourhood" sheetId="37" r:id="rId21"/>
-    <sheet name="Table 3 - city" sheetId="8" r:id="rId22"/>
-    <sheet name="Table 3 - country" sheetId="9" r:id="rId23"/>
-    <sheet name="Table 3 - overall" sheetId="10" r:id="rId24"/>
-    <sheet name="Table 4 - country" sheetId="40" r:id="rId25"/>
-    <sheet name="Table 4 - overall" sheetId="12" r:id="rId26"/>
-    <sheet name="Table 5 - city" sheetId="13" r:id="rId27"/>
-    <sheet name="Table 5 - country" sheetId="14" r:id="rId28"/>
-    <sheet name="Table 5 - overall" sheetId="15" r:id="rId29"/>
-    <sheet name="Table S1 - city" sheetId="16" r:id="rId30"/>
-    <sheet name="Table S1 - country" sheetId="17" r:id="rId31"/>
-    <sheet name="Table S1 - overall" sheetId="18" r:id="rId32"/>
-    <sheet name="Table 8 - country" sheetId="21" r:id="rId33"/>
-    <sheet name="Table 8 - vendortype" sheetId="22" r:id="rId34"/>
-    <sheet name="Table 8 - sentinelfood" sheetId="23" r:id="rId35"/>
-    <sheet name="Table 11a" sheetId="26" r:id="rId36"/>
-    <sheet name="Table 11b" sheetId="27" r:id="rId37"/>
-    <sheet name="Table 11c" sheetId="28" r:id="rId38"/>
-    <sheet name="Table 13a" sheetId="30" r:id="rId39"/>
-    <sheet name="Table 13b" sheetId="31" r:id="rId40"/>
+    <sheet name="Tab2s" sheetId="46" r:id="rId3"/>
+    <sheet name="Tab3" sheetId="7" r:id="rId4"/>
+    <sheet name="Tab4" sheetId="39" r:id="rId5"/>
+    <sheet name="Tab5" sheetId="41" r:id="rId6"/>
+    <sheet name="TabS1" sheetId="42" r:id="rId7"/>
+    <sheet name="Tab6" sheetId="19" r:id="rId8"/>
+    <sheet name="Tab7" sheetId="20" r:id="rId9"/>
+    <sheet name="Tab8" sheetId="43" r:id="rId10"/>
+    <sheet name="Tab9" sheetId="24" r:id="rId11"/>
+    <sheet name="Tab10" sheetId="25" r:id="rId12"/>
+    <sheet name="Tab11" sheetId="44" r:id="rId13"/>
+    <sheet name="Tab12" sheetId="29" r:id="rId14"/>
+    <sheet name="Tab13" sheetId="45" r:id="rId15"/>
+    <sheet name="Tab14" sheetId="32" r:id="rId16"/>
+    <sheet name="Table 1" sheetId="35" r:id="rId17"/>
+    <sheet name="Table 2 - neighbourhood" sheetId="3" r:id="rId18"/>
+    <sheet name="Table 2 - city" sheetId="4" r:id="rId19"/>
+    <sheet name="Table 2 - country" sheetId="5" r:id="rId20"/>
+    <sheet name="Table 2 - overall" sheetId="6" r:id="rId21"/>
+    <sheet name="Table 3 - neighbourhood" sheetId="37" r:id="rId22"/>
+    <sheet name="Table 3 - city" sheetId="8" r:id="rId23"/>
+    <sheet name="Table 3 - country" sheetId="9" r:id="rId24"/>
+    <sheet name="Table 3 - overall" sheetId="10" r:id="rId25"/>
+    <sheet name="Table 4 - country" sheetId="40" r:id="rId26"/>
+    <sheet name="Table 4 - overall" sheetId="12" r:id="rId27"/>
+    <sheet name="Table 5 - city" sheetId="13" r:id="rId28"/>
+    <sheet name="Table 5 - country" sheetId="14" r:id="rId29"/>
+    <sheet name="Table 5 - overall" sheetId="15" r:id="rId30"/>
+    <sheet name="Table S1 - city" sheetId="16" r:id="rId31"/>
+    <sheet name="Table S1 - country" sheetId="17" r:id="rId32"/>
+    <sheet name="Table S1 - overall" sheetId="18" r:id="rId33"/>
+    <sheet name="Table 8 - country" sheetId="21" r:id="rId34"/>
+    <sheet name="Table 8 - vendortype" sheetId="22" r:id="rId35"/>
+    <sheet name="Table 8 - sentinelfood" sheetId="23" r:id="rId36"/>
+    <sheet name="Table 11a" sheetId="26" r:id="rId37"/>
+    <sheet name="Table 11b" sheetId="27" r:id="rId38"/>
+    <sheet name="Table 11c" sheetId="28" r:id="rId39"/>
+    <sheet name="Table 13a" sheetId="30" r:id="rId40"/>
+    <sheet name="Table 13b" sheetId="31" r:id="rId41"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -179,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1114">
   <si>
     <t>country</t>
   </si>
@@ -3377,6 +3378,150 @@
   </si>
   <si>
     <t>58 (17.31%)</t>
+  </si>
+  <si>
+    <t>4 (1.75)</t>
+  </si>
+  <si>
+    <t>2 (11.11%)</t>
+  </si>
+  <si>
+    <t>1 (0)</t>
+  </si>
+  <si>
+    <t>4 (14.29%)</t>
+  </si>
+  <si>
+    <t>1.5 (1.25)</t>
+  </si>
+  <si>
+    <t>3 (3)</t>
+  </si>
+  <si>
+    <t>4.5 (3.5)</t>
+  </si>
+  <si>
+    <t>3 (5.17%)</t>
+  </si>
+  <si>
+    <t>1 (3.5)</t>
+  </si>
+  <si>
+    <t>4 (0)</t>
+  </si>
+  <si>
+    <t>2.5 (1.5)</t>
+  </si>
+  <si>
+    <t>19 (15.08%)</t>
+  </si>
+  <si>
+    <t>1 (3)</t>
+  </si>
+  <si>
+    <t>9 (40.91%)</t>
+  </si>
+  <si>
+    <t>11 (11.7%)</t>
+  </si>
+  <si>
+    <t>1 (0.5)</t>
+  </si>
+  <si>
+    <t>29 (20.57%)</t>
+  </si>
+  <si>
+    <t>1 (1)</t>
+  </si>
+  <si>
+    <t>2 (12.5%)</t>
+  </si>
+  <si>
+    <t>1.5 (0.5)</t>
+  </si>
+  <si>
+    <t>3 (10%)</t>
+  </si>
+  <si>
+    <t>2 (2.7%)</t>
+  </si>
+  <si>
+    <t>7 (5.83%)</t>
+  </si>
+  <si>
+    <t>16 (15.53%)</t>
+  </si>
+  <si>
+    <t>1 (1.25)</t>
+  </si>
+  <si>
+    <t>15 (27.78%)</t>
+  </si>
+  <si>
+    <t>2 (2.5)</t>
+  </si>
+  <si>
+    <t>8 (11.59%)</t>
+  </si>
+  <si>
+    <t>39 (17.26%)</t>
+  </si>
+  <si>
+    <t>2 (2)</t>
+  </si>
+  <si>
+    <t>75 (15.4%)</t>
+  </si>
+  <si>
+    <t>1 (2)</t>
+  </si>
+  <si>
+    <t>4 (2.5)</t>
+  </si>
+  <si>
+    <t>5 (26.32%)</t>
+  </si>
+  <si>
+    <t>2 (1)</t>
+  </si>
+  <si>
+    <t>1 (7.69%)</t>
+  </si>
+  <si>
+    <t>9 (20.93%)</t>
+  </si>
+  <si>
+    <t>7 (46.67%)</t>
+  </si>
+  <si>
+    <t>9 (31.03%)</t>
+  </si>
+  <si>
+    <t>21 (35%)</t>
+  </si>
+  <si>
+    <t>14 (28.57%)</t>
+  </si>
+  <si>
+    <t>1 (3.75)</t>
+  </si>
+  <si>
+    <t>6 (20%)</t>
+  </si>
+  <si>
+    <t>2 (2.75)</t>
+  </si>
+  <si>
+    <t>8 (61.54%)</t>
+  </si>
+  <si>
+    <t>3 (3.25)</t>
+  </si>
+  <si>
+    <t>28 (30.43%)</t>
+  </si>
+  <si>
+    <t>58 (29.74%)</t>
   </si>
 </sst>
 </file>
@@ -3577,7 +3722,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3772,20 +3917,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3802,23 +3939,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3831,10 +3983,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4139,7 +4287,7 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4165,34 +4313,34 @@
       <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>821</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="87" t="s">
         <v>822</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="79" t="s">
         <v>823</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="81" t="s">
         <v>824</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="81" t="s">
         <v>825</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="85" t="s">
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="83" t="s">
         <v>826</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="84"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="7" t="s">
         <v>827</v>
       </c>
@@ -4213,7 +4361,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="84" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -4245,7 +4393,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" t="s">
         <v>1052</v>
       </c>
@@ -4275,7 +4423,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
+      <c r="A6" s="85"/>
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -4305,7 +4453,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="78"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="13" t="s">
         <v>452</v>
       </c>
@@ -4335,7 +4483,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="84" t="s">
         <v>45</v>
       </c>
       <c r="B8" t="s">
@@ -4367,7 +4515,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="85" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
@@ -4399,7 +4547,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="85" t="s">
         <v>45</v>
       </c>
       <c r="B10" t="s">
@@ -4431,7 +4579,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="86" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -4463,7 +4611,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="84" t="s">
         <v>920</v>
       </c>
       <c r="B12" t="s">
@@ -4495,7 +4643,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="85" t="s">
         <v>73</v>
       </c>
       <c r="B13" t="s">
@@ -4527,7 +4675,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="85" t="s">
         <v>73</v>
       </c>
       <c r="B14" t="s">
@@ -4559,7 +4707,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="86" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -4620,15 +4768,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4637,6 +4785,370 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E2761-2B9D-4259-A10D-87EAE6ED33F9}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.08984375" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.6328125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1">
+        <v>264</v>
+      </c>
+      <c r="E4" s="1">
+        <v>33.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="11">
+        <v>262</v>
+      </c>
+      <c r="D5" s="11">
+        <v>335</v>
+      </c>
+      <c r="E5" s="11">
+        <v>78.209999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="60">
+        <v>128</v>
+      </c>
+      <c r="D8" s="60">
+        <v>325</v>
+      </c>
+      <c r="E8" s="60">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11">
+        <v>301</v>
+      </c>
+      <c r="D9" s="11">
+        <v>357</v>
+      </c>
+      <c r="E9" s="11">
+        <v>84.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>967</v>
+      </c>
+      <c r="C11" s="1">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>968</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>969</v>
+      </c>
+      <c r="C13" s="1">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>970</v>
+      </c>
+      <c r="C14" s="1">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1">
+        <v>53.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>971</v>
+      </c>
+      <c r="C15" s="1">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>972</v>
+      </c>
+      <c r="C16" s="1">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1">
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>973</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1">
+        <v>78.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>974</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>975</v>
+      </c>
+      <c r="C19" s="1">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1">
+        <v>117</v>
+      </c>
+      <c r="E19" s="1">
+        <v>47.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>988</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>977</v>
+      </c>
+      <c r="C21" s="1">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1">
+        <v>54.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>978</v>
+      </c>
+      <c r="C22" s="1">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>979</v>
+      </c>
+      <c r="C23" s="1">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1">
+        <v>101</v>
+      </c>
+      <c r="E23" s="1">
+        <v>63.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="C24" s="11">
+        <v>19</v>
+      </c>
+      <c r="D24" s="11">
+        <v>30</v>
+      </c>
+      <c r="E24" s="11">
+        <v>63.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="16">
+        <v>433</v>
+      </c>
+      <c r="D25" s="16">
+        <v>691</v>
+      </c>
+      <c r="E25" s="16">
+        <v>62.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5118,7 +5630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5137,22 +5649,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25"/>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="95" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="E1" s="95"/>
+      <c r="F1" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92" t="s">
+      <c r="G1" s="95"/>
+      <c r="H1" s="95" t="s">
         <v>920</v>
       </c>
-      <c r="I1" s="92"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
@@ -5396,7 +5908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A589A967-376F-43AE-A3B2-7E06B9AC4E2D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5415,22 +5927,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>486</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92" t="s">
+      <c r="D1" s="95"/>
+      <c r="E1" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92" t="s">
+      <c r="F1" s="95"/>
+      <c r="G1" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92" t="s">
+      <c r="H1" s="95"/>
+      <c r="I1" s="95" t="s">
         <v>920</v>
       </c>
-      <c r="J1" s="92"/>
+      <c r="J1" s="95"/>
     </row>
     <row r="2" spans="1:10" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="63" t="s">
@@ -5845,7 +6357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5863,26 +6375,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94" t="s">
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97" t="s">
         <v>920</v>
       </c>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="68" t="s">
@@ -6552,7 +7064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C126AEC4-39D2-444B-8A89-186033544194}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6571,22 +7083,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="98" t="s">
         <v>486</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95" t="s">
+      <c r="F1" s="98"/>
+      <c r="G1" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95" t="s">
+      <c r="H1" s="98"/>
+      <c r="I1" s="98" t="s">
         <v>920</v>
       </c>
-      <c r="J1" s="95"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C2" s="62" t="s">
@@ -6830,7 +7342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6923,7 +7435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3214238F-904D-47D0-9F1E-F69650073720}">
   <dimension ref="A1:O14"/>
   <sheetViews>
@@ -7525,7 +8037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -8269,7 +8781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -8507,102 +9019,6 @@
       </c>
       <c r="G10" t="s">
         <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" activeCellId="1" sqref="D20 G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>126</v>
-      </c>
-      <c r="C2">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>0.206349206349206</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>487</v>
-      </c>
-      <c r="C3">
-        <v>155</v>
-      </c>
-      <c r="D3">
-        <v>0.318275154004107</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4">
-        <v>195</v>
-      </c>
-      <c r="C4">
-        <v>115</v>
-      </c>
-      <c r="D4">
-        <v>0.58974358974358998</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8619,7 +9035,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9398,6 +9814,102 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" activeCellId="1" sqref="D20 G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>126</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>0.206349206349206</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>487</v>
+      </c>
+      <c r="C3">
+        <v>155</v>
+      </c>
+      <c r="D3">
+        <v>0.318275154004107</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>195</v>
+      </c>
+      <c r="C4">
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <v>0.58974358974358998</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -9447,7 +9959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B20B94-B753-466C-A7F7-C1D6ADCC8F96}">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -10191,7 +10703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -10435,7 +10947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -10529,7 +11041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -10579,7 +11091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C047C2BB-4C74-4219-A8DB-201CC6143CA3}">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -10903,7 +11415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -10984,7 +11496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -11380,7 +11892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -11548,7 +12060,676 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829DFA70-6B6C-422D-8550-08BDD112B180}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="76" t="s">
+        <v>821</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>822</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>825</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>824</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>906</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="27">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="27">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="27">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="40">
+        <v>60</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="27">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="27">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>745</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="27">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" s="40">
+        <v>58</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="27">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="27">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="27">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D14" s="40">
+        <v>8</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="34">
+        <v>126</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="27">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="27">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="27">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D19" s="40">
+        <v>141</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="27">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="27">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="27">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D23" s="40">
+        <v>120</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="27">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="27">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="27">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D27" s="40">
+        <v>226</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="34">
+        <v>487</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>920</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="27">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>792</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="27">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="27">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D32" s="40">
+        <v>43</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="27">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="27">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="27">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>796</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D36" s="40">
+        <v>60</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="27">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="27">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="27">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="17"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D40" s="40">
+        <v>92</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="41">
+        <v>195</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="34">
+        <v>808</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -11628,7 +12809,1468 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" t="s">
+        <v>397</v>
+      </c>
+      <c r="L3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J4" t="s">
+        <v>328</v>
+      </c>
+      <c r="K4" t="s">
+        <v>329</v>
+      </c>
+      <c r="L4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>335</v>
+      </c>
+      <c r="H5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I5" t="s">
+        <v>399</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s">
+        <v>400</v>
+      </c>
+      <c r="L5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" t="s">
+        <v>403</v>
+      </c>
+      <c r="J6" t="s">
+        <v>404</v>
+      </c>
+      <c r="K6" t="s">
+        <v>405</v>
+      </c>
+      <c r="L6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" t="s">
+        <v>352</v>
+      </c>
+      <c r="I7" t="s">
+        <v>407</v>
+      </c>
+      <c r="J7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G8" t="s">
+        <v>358</v>
+      </c>
+      <c r="H8" t="s">
+        <v>413</v>
+      </c>
+      <c r="I8" t="s">
+        <v>414</v>
+      </c>
+      <c r="J8" t="s">
+        <v>415</v>
+      </c>
+      <c r="K8" t="s">
+        <v>416</v>
+      </c>
+      <c r="L8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F9" t="s">
+        <v>419</v>
+      </c>
+      <c r="G9" t="s">
+        <v>420</v>
+      </c>
+      <c r="H9" t="s">
+        <v>367</v>
+      </c>
+      <c r="I9" t="s">
+        <v>421</v>
+      </c>
+      <c r="J9" t="s">
+        <v>422</v>
+      </c>
+      <c r="K9" t="s">
+        <v>423</v>
+      </c>
+      <c r="L9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" t="s">
+        <v>426</v>
+      </c>
+      <c r="I2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J3" t="s">
+        <v>405</v>
+      </c>
+      <c r="K3" t="s">
+        <v>406</v>
+      </c>
+      <c r="L3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H4" t="s">
+        <v>433</v>
+      </c>
+      <c r="I4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J4" t="s">
+        <v>423</v>
+      </c>
+      <c r="K4" t="s">
+        <v>424</v>
+      </c>
+      <c r="L4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>92</v>
+      </c>
+      <c r="D2">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>264</v>
+      </c>
+      <c r="D3">
+        <v>33.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>262</v>
+      </c>
+      <c r="C4">
+        <v>335</v>
+      </c>
+      <c r="D4">
+        <v>78.209999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B5">
+        <v>433</v>
+      </c>
+      <c r="C5">
+        <v>691</v>
+      </c>
+      <c r="D5">
+        <v>62.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>325</v>
+      </c>
+      <c r="D3">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>301</v>
+      </c>
+      <c r="C4">
+        <v>357</v>
+      </c>
+      <c r="D4">
+        <v>84.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>78.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>117</v>
+      </c>
+      <c r="D9">
+        <v>47.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>54.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>621</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>622</v>
+      </c>
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <v>63.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>63.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>624</v>
+      </c>
+      <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>53.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>6.37</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>6.82</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>6.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1" t="s">
+        <v>689</v>
+      </c>
+      <c r="I1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6.82</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>11.11</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>44.44</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2.27</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>61.36</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>68.180000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>27.78</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>36.36</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>77.78</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>11.36</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.56</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>22.73</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>11.11</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>36.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>700</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6.82</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>13.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -12280,13 +14922,13 @@
       </c>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
-      <c r="D42" s="97">
+      <c r="D42" s="78">
         <v>296</v>
       </c>
-      <c r="E42" s="97" t="s">
+      <c r="E42" s="78" t="s">
         <v>1053</v>
       </c>
-      <c r="F42" s="97" t="s">
+      <c r="F42" s="78" t="s">
         <v>207</v>
       </c>
     </row>
@@ -12314,7 +14956,7 @@
       <c r="B46">
         <v>140</v>
       </c>
-      <c r="C46" s="96">
+      <c r="C46" s="77">
         <v>0.47297297297297303</v>
       </c>
       <c r="D46">
@@ -12330,1468 +14972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J1" t="s">
-        <v>309</v>
-      </c>
-      <c r="K1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H2" t="s">
-        <v>316</v>
-      </c>
-      <c r="I2" t="s">
-        <v>393</v>
-      </c>
-      <c r="J2" t="s">
-        <v>347</v>
-      </c>
-      <c r="K2" t="s">
-        <v>394</v>
-      </c>
-      <c r="L2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>820</v>
-      </c>
-      <c r="C3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I3" t="s">
-        <v>396</v>
-      </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" t="s">
-        <v>397</v>
-      </c>
-      <c r="L3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H4" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" t="s">
-        <v>327</v>
-      </c>
-      <c r="J4" t="s">
-        <v>328</v>
-      </c>
-      <c r="K4" t="s">
-        <v>329</v>
-      </c>
-      <c r="L4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" t="s">
-        <v>398</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" t="s">
-        <v>335</v>
-      </c>
-      <c r="H5" t="s">
-        <v>335</v>
-      </c>
-      <c r="I5" t="s">
-        <v>399</v>
-      </c>
-      <c r="J5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" t="s">
-        <v>400</v>
-      </c>
-      <c r="L5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" t="s">
-        <v>401</v>
-      </c>
-      <c r="F6" t="s">
-        <v>402</v>
-      </c>
-      <c r="G6" t="s">
-        <v>344</v>
-      </c>
-      <c r="H6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I6" t="s">
-        <v>403</v>
-      </c>
-      <c r="J6" t="s">
-        <v>404</v>
-      </c>
-      <c r="K6" t="s">
-        <v>405</v>
-      </c>
-      <c r="L6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H7" t="s">
-        <v>352</v>
-      </c>
-      <c r="I7" t="s">
-        <v>407</v>
-      </c>
-      <c r="J7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" t="s">
-        <v>411</v>
-      </c>
-      <c r="F8" t="s">
-        <v>412</v>
-      </c>
-      <c r="G8" t="s">
-        <v>358</v>
-      </c>
-      <c r="H8" t="s">
-        <v>413</v>
-      </c>
-      <c r="I8" t="s">
-        <v>414</v>
-      </c>
-      <c r="J8" t="s">
-        <v>415</v>
-      </c>
-      <c r="K8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E9" t="s">
-        <v>418</v>
-      </c>
-      <c r="F9" t="s">
-        <v>419</v>
-      </c>
-      <c r="G9" t="s">
-        <v>420</v>
-      </c>
-      <c r="H9" t="s">
-        <v>367</v>
-      </c>
-      <c r="I9" t="s">
-        <v>421</v>
-      </c>
-      <c r="J9" t="s">
-        <v>422</v>
-      </c>
-      <c r="K9" t="s">
-        <v>423</v>
-      </c>
-      <c r="L9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J1" t="s">
-        <v>310</v>
-      </c>
-      <c r="K1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H2" t="s">
-        <v>426</v>
-      </c>
-      <c r="I2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J2" t="s">
-        <v>394</v>
-      </c>
-      <c r="K2" t="s">
-        <v>395</v>
-      </c>
-      <c r="L2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F3" t="s">
-        <v>344</v>
-      </c>
-      <c r="G3" t="s">
-        <v>345</v>
-      </c>
-      <c r="H3" t="s">
-        <v>429</v>
-      </c>
-      <c r="I3" t="s">
-        <v>430</v>
-      </c>
-      <c r="J3" t="s">
-        <v>405</v>
-      </c>
-      <c r="K3" t="s">
-        <v>406</v>
-      </c>
-      <c r="L3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" t="s">
-        <v>431</v>
-      </c>
-      <c r="E4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F4" t="s">
-        <v>358</v>
-      </c>
-      <c r="G4" t="s">
-        <v>367</v>
-      </c>
-      <c r="H4" t="s">
-        <v>433</v>
-      </c>
-      <c r="I4" t="s">
-        <v>434</v>
-      </c>
-      <c r="J4" t="s">
-        <v>423</v>
-      </c>
-      <c r="K4" t="s">
-        <v>424</v>
-      </c>
-      <c r="L4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G2" t="s">
-        <v>437</v>
-      </c>
-      <c r="H2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I2" t="s">
-        <v>405</v>
-      </c>
-      <c r="J2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>82</v>
-      </c>
-      <c r="C2">
-        <v>92</v>
-      </c>
-      <c r="D2">
-        <v>89.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>89</v>
-      </c>
-      <c r="C3">
-        <v>264</v>
-      </c>
-      <c r="D3">
-        <v>33.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4">
-        <v>262</v>
-      </c>
-      <c r="C4">
-        <v>335</v>
-      </c>
-      <c r="D4">
-        <v>78.209999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B5">
-        <v>433</v>
-      </c>
-      <c r="C5">
-        <v>691</v>
-      </c>
-      <c r="D5">
-        <v>62.66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>44.44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>128</v>
-      </c>
-      <c r="C3">
-        <v>325</v>
-      </c>
-      <c r="D3">
-        <v>39.380000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>301</v>
-      </c>
-      <c r="C4">
-        <v>357</v>
-      </c>
-      <c r="D4">
-        <v>84.31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B2">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>34</v>
-      </c>
-      <c r="D2">
-        <v>82.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-      <c r="D3">
-        <v>85.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B4">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>614</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>38</v>
-      </c>
-      <c r="D5">
-        <v>78.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>615</v>
-      </c>
-      <c r="B6">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>58</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>616</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-      <c r="D7">
-        <v>71.430000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>617</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>46.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>618</v>
-      </c>
-      <c r="B9">
-        <v>56</v>
-      </c>
-      <c r="C9">
-        <v>117</v>
-      </c>
-      <c r="D9">
-        <v>47.86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>619</v>
-      </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>620</v>
-      </c>
-      <c r="B11">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>54.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>621</v>
-      </c>
-      <c r="B12">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-      <c r="D12">
-        <v>77.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>622</v>
-      </c>
-      <c r="B13">
-        <v>64</v>
-      </c>
-      <c r="C13">
-        <v>101</v>
-      </c>
-      <c r="D13">
-        <v>63.37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>623</v>
-      </c>
-      <c r="B14">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>63.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>624</v>
-      </c>
-      <c r="B15">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>62</v>
-      </c>
-      <c r="D15">
-        <v>53.23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D1" t="s">
-        <v>676</v>
-      </c>
-      <c r="E1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G1" t="s">
-        <v>684</v>
-      </c>
-      <c r="H1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>44</v>
-      </c>
-      <c r="B2">
-        <v>6.37</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>6.82</v>
-      </c>
-      <c r="G2">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>6.57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B1" t="s">
-        <v>686</v>
-      </c>
-      <c r="C1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D1" t="s">
-        <v>687</v>
-      </c>
-      <c r="E1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F1" t="s">
-        <v>688</v>
-      </c>
-      <c r="G1" t="s">
-        <v>678</v>
-      </c>
-      <c r="H1" t="s">
-        <v>689</v>
-      </c>
-      <c r="I1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>691</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>6.82</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>11.11</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>692</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>34.090000000000003</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>44.44</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>27.27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>693</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2.27</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>694</v>
-      </c>
-      <c r="B6">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>61.36</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>75</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>68.180000000000007</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G1" t="s">
-        <v>678</v>
-      </c>
-      <c r="H1" t="s">
-        <v>679</v>
-      </c>
-      <c r="I1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>34.090000000000003</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>27.78</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>45.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>36.36</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>77.78</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>697</v>
-      </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>75</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>45.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>698</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>11.36</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>5.56</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>699</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>22.73</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>11.11</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>36.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>700</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>6.82</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>13.64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -13921,7 +15102,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B2">
+        <v>143</v>
+      </c>
+      <c r="C2">
+        <v>20.69</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>28.26</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="H2">
+        <v>92</v>
+      </c>
+      <c r="I2">
+        <v>27.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B3">
+        <v>418</v>
+      </c>
+      <c r="C3">
+        <v>60.49</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>48.91</v>
+      </c>
+      <c r="F3">
+        <v>194</v>
+      </c>
+      <c r="G3">
+        <v>73.48</v>
+      </c>
+      <c r="H3">
+        <v>179</v>
+      </c>
+      <c r="I3">
+        <v>53.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B4">
+        <v>129</v>
+      </c>
+      <c r="C4">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>22.83</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="H4">
+        <v>64</v>
+      </c>
+      <c r="I4">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C5DFEC-DAF8-42E6-986C-2973BDAB2A84}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -13941,29 +15252,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>821</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="90" t="s">
         <v>940</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="91" t="s">
         <v>944</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="91" t="s">
         <v>945</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="89" t="s">
         <v>946</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="13" t="s">
         <v>941</v>
       </c>
@@ -13975,7 +15286,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="45" t="s">
@@ -13998,7 +15309,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="80"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="9" t="s">
         <v>279</v>
       </c>
@@ -14019,7 +15330,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="90" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="45" t="s">
@@ -14042,7 +15353,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="88" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -14065,7 +15376,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="90" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="45" t="s">
@@ -14088,7 +15399,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="88" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -14111,7 +15422,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="93" t="s">
         <v>486</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -14134,7 +15445,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="94" t="s">
         <v>486</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -14158,152 +15469,22 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B1" t="s">
-        <v>806</v>
-      </c>
-      <c r="C1" t="s">
-        <v>807</v>
-      </c>
-      <c r="D1" t="s">
-        <v>808</v>
-      </c>
-      <c r="E1" t="s">
-        <v>809</v>
-      </c>
-      <c r="F1" t="s">
-        <v>810</v>
-      </c>
-      <c r="G1" t="s">
-        <v>811</v>
-      </c>
-      <c r="H1" t="s">
-        <v>812</v>
-      </c>
-      <c r="I1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>818</v>
-      </c>
-      <c r="B2">
-        <v>143</v>
-      </c>
-      <c r="C2">
-        <v>20.69</v>
-      </c>
-      <c r="D2">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <v>28.26</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="H2">
-        <v>92</v>
-      </c>
-      <c r="I2">
-        <v>27.46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>815</v>
-      </c>
-      <c r="B3">
-        <v>418</v>
-      </c>
-      <c r="C3">
-        <v>60.49</v>
-      </c>
-      <c r="D3">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>48.91</v>
-      </c>
-      <c r="F3">
-        <v>194</v>
-      </c>
-      <c r="G3">
-        <v>73.48</v>
-      </c>
-      <c r="H3">
-        <v>179</v>
-      </c>
-      <c r="I3">
-        <v>53.43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>819</v>
-      </c>
-      <c r="B4">
-        <v>129</v>
-      </c>
-      <c r="C4">
-        <v>18.670000000000002</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>22.83</v>
-      </c>
-      <c r="F4">
-        <v>44</v>
-      </c>
-      <c r="G4">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="H4">
-        <v>64</v>
-      </c>
-      <c r="I4">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F84B3D-4952-4541-9CFC-577AD720BC8D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -14606,7 +15787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6485E8E5-CED3-4540-83B2-F2999C7D5FAF}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -14903,7 +16084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -15494,7 +16675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -16012,368 +17193,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E2761-2B9D-4259-A10D-87EAE6ED33F9}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.08984375" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="20.6328125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="15" t="s">
-        <v>984</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>985</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>82</v>
-      </c>
-      <c r="D3" s="1">
-        <v>92</v>
-      </c>
-      <c r="E3" s="1">
-        <v>89.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1">
-        <v>89</v>
-      </c>
-      <c r="D4" s="1">
-        <v>264</v>
-      </c>
-      <c r="E4" s="1">
-        <v>33.71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="11">
-        <v>262</v>
-      </c>
-      <c r="D5" s="11">
-        <v>335</v>
-      </c>
-      <c r="E5" s="11">
-        <v>78.209999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>987</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>44.44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="60">
-        <v>128</v>
-      </c>
-      <c r="D8" s="60">
-        <v>325</v>
-      </c>
-      <c r="E8" s="60">
-        <v>39.380000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11">
-        <v>301</v>
-      </c>
-      <c r="D9" s="11">
-        <v>357</v>
-      </c>
-      <c r="E9" s="11">
-        <v>84.31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>981</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>967</v>
-      </c>
-      <c r="C11" s="1">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1">
-        <v>82.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>968</v>
-      </c>
-      <c r="C12" s="1">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1">
-        <v>35</v>
-      </c>
-      <c r="E12" s="1">
-        <v>85.71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>969</v>
-      </c>
-      <c r="C13" s="1">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>970</v>
-      </c>
-      <c r="C14" s="1">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>62</v>
-      </c>
-      <c r="E14" s="1">
-        <v>53.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>971</v>
-      </c>
-      <c r="C15" s="1">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>972</v>
-      </c>
-      <c r="C16" s="1">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1">
-        <v>71.430000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>973</v>
-      </c>
-      <c r="C17" s="1">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1">
-        <v>78.95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>974</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1">
-        <v>46.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>975</v>
-      </c>
-      <c r="C19" s="1">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1">
-        <v>117</v>
-      </c>
-      <c r="E19" s="1">
-        <v>47.86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>988</v>
-      </c>
-      <c r="C20" s="1">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>977</v>
-      </c>
-      <c r="C21" s="1">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1">
-        <v>48</v>
-      </c>
-      <c r="E21" s="1">
-        <v>54.17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>978</v>
-      </c>
-      <c r="C22" s="1">
-        <v>35</v>
-      </c>
-      <c r="D22" s="1">
-        <v>45</v>
-      </c>
-      <c r="E22" s="1">
-        <v>77.78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>979</v>
-      </c>
-      <c r="C23" s="1">
-        <v>64</v>
-      </c>
-      <c r="D23" s="1">
-        <v>101</v>
-      </c>
-      <c r="E23" s="1">
-        <v>63.37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9" t="s">
-        <v>980</v>
-      </c>
-      <c r="C24" s="11">
-        <v>19</v>
-      </c>
-      <c r="D24" s="11">
-        <v>30</v>
-      </c>
-      <c r="E24" s="11">
-        <v>63.33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="16">
-        <v>433</v>
-      </c>
-      <c r="D25" s="16">
-        <v>691</v>
-      </c>
-      <c r="E25" s="16">
-        <v>62.66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>